--- a/src/main/resources/boundary_value_testing.xlsx
+++ b/src/main/resources/boundary_value_testing.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="24">
   <si>
     <t xml:space="preserve"> TC ID</t>
   </si>
@@ -1297,10 +1297,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" t="s" s="0">
         <v>7</v>
       </c>
     </row>
@@ -1323,7 +1323,7 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -1346,7 +1346,7 @@
       <c r="F3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -1415,10 +1415,10 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1441,10 +1441,10 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1467,10 +1467,10 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="G8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H8" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1493,10 +1493,10 @@
       <c r="F9" s="2">
         <v>50000</v>
       </c>
-      <c r="G9">
-        <v>50000</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="n" s="0">
+        <v>50000.0</v>
+      </c>
+      <c r="H9" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1519,10 +1519,10 @@
       <c r="F10" s="2">
         <v>50000</v>
       </c>
-      <c r="G10">
-        <v>50000</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G10" t="n" s="0">
+        <v>50000.0</v>
+      </c>
+      <c r="H10" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1545,10 +1545,10 @@
       <c r="F11" s="2">
         <v>100000</v>
       </c>
-      <c r="G11">
-        <v>100000</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="G11" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="H11" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1571,10 +1571,10 @@
       <c r="F12" s="2">
         <v>100000</v>
       </c>
-      <c r="G12">
-        <v>100000</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="G12" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="H12" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1597,10 +1597,10 @@
       <c r="F13" s="2">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="G13" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H13" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1623,10 +1623,10 @@
       <c r="F14" s="2">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="G14" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H14" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1649,10 +1649,10 @@
       <c r="F15" s="2">
         <v>100000</v>
       </c>
-      <c r="G15">
-        <v>100000</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="G15" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="H15" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1675,10 +1675,10 @@
       <c r="F16" s="2">
         <v>80000</v>
       </c>
-      <c r="G16">
-        <v>80000</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G16" t="n" s="0">
+        <v>80000.0</v>
+      </c>
+      <c r="H16" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1701,10 +1701,10 @@
       <c r="F17" s="2">
         <v>120000</v>
       </c>
-      <c r="G17">
-        <v>120000</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" t="n" s="0">
+        <v>120000.0</v>
+      </c>
+      <c r="H17" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1727,10 +1727,10 @@
       <c r="F18" s="2">
         <v>100000</v>
       </c>
-      <c r="G18">
-        <v>100000</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="G18" t="n" s="0">
+        <v>100000.0</v>
+      </c>
+      <c r="H18" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1753,10 +1753,10 @@
       <c r="F19" s="2">
         <v>50000</v>
       </c>
-      <c r="G19">
-        <v>50000</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="G19" t="n" s="0">
+        <v>50000.0</v>
+      </c>
+      <c r="H19" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1779,10 +1779,10 @@
       <c r="F20" s="2">
         <v>90000</v>
       </c>
-      <c r="G20">
-        <v>90000</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="G20" t="n" s="0">
+        <v>90000.0</v>
+      </c>
+      <c r="H20" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1805,10 +1805,10 @@
       <c r="F21" s="2">
         <v>70000</v>
       </c>
-      <c r="G21">
-        <v>70000</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="G21" t="n" s="0">
+        <v>70000.0</v>
+      </c>
+      <c r="H21" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1831,10 +1831,10 @@
       <c r="F22" s="2">
         <v>90000</v>
       </c>
-      <c r="G22">
-        <v>90000</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G22" t="n" s="0">
+        <v>90000.0</v>
+      </c>
+      <c r="H22" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1857,10 +1857,10 @@
       <c r="F23" s="2">
         <v>60000</v>
       </c>
-      <c r="G23">
-        <v>60000</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="G23" t="n" s="0">
+        <v>60000.0</v>
+      </c>
+      <c r="H23" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1883,10 +1883,10 @@
       <c r="F24" s="2">
         <v>0</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="G24" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H24" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1909,10 +1909,10 @@
       <c r="F25" s="2">
         <v>0</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="G25" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1935,10 +1935,10 @@
       <c r="F26" s="2">
         <v>70000</v>
       </c>
-      <c r="G26">
-        <v>70000</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="G26" t="n" s="0">
+        <v>70000.0</v>
+      </c>
+      <c r="H26" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1961,10 +1961,10 @@
       <c r="F27" s="2">
         <v>30000</v>
       </c>
-      <c r="G27">
-        <v>30000</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="G27" t="n" s="0">
+        <v>30000.0</v>
+      </c>
+      <c r="H27" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -1987,10 +1987,10 @@
       <c r="F28" s="2">
         <v>0</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="G28" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H28" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -2013,10 +2013,10 @@
       <c r="F29" s="2">
         <v>30000</v>
       </c>
-      <c r="G29">
-        <v>30000</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="G29" t="n" s="0">
+        <v>30000.0</v>
+      </c>
+      <c r="H29" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -2039,10 +2039,10 @@
       <c r="F30" s="2">
         <v>50000</v>
       </c>
-      <c r="G30">
-        <v>50000</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="G30" t="n" s="0">
+        <v>50000.0</v>
+      </c>
+      <c r="H30" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -2065,10 +2065,10 @@
       <c r="F31" s="2">
         <v>110000</v>
       </c>
-      <c r="G31">
-        <v>110000</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="G31" t="n" s="0">
+        <v>110000.0</v>
+      </c>
+      <c r="H31" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -2088,14 +2088,14 @@
       <c r="E32" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>20</v>
+      <c r="F32" s="0">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2114,14 +2114,14 @@
       <c r="E33" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33" t="s">
-        <v>20</v>
+      <c r="F33" s="0">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="34" ht="42.75" spans="1:8">
@@ -2143,7 +2143,7 @@
       <c r="F34" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -2166,7 +2166,7 @@
       <c r="F35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       <c r="F36" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" t="s" s="0">
         <v>10</v>
       </c>
     </row>
@@ -2212,10 +2212,10 @@
       <c r="F37" s="2">
         <v>70000</v>
       </c>
-      <c r="G37">
-        <v>70000</v>
-      </c>
-      <c r="H37" t="s">
+      <c r="G37" t="n" s="0">
+        <v>70000.0</v>
+      </c>
+      <c r="H37" t="s" s="0">
         <v>15</v>
       </c>
     </row>
